--- a/DesignerConfigs/Datas/test/test_excel_bean.xlsx
+++ b/DesignerConfigs/Datas/test/test_excel_bean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BC426A-9C67-4ABE-A5B8-2D04EC83497A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A07B60-A7FE-4EF2-B62A-A9CEE96DB60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="26100" windowHeight="14850" xr2:uid="{7AB0535F-222E-413C-B0CA-19C827C106C3}"/>
+    <workbookView xWindow="31485" yWindow="2685" windowWidth="25335" windowHeight="12915" xr2:uid="{7AB0535F-222E-413C-B0CA-19C827C106C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,66 +25,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>字段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段2</t>
+  </si>
+  <si>
+    <t>字段3</t>
+  </si>
+  <si>
+    <t>字段4</t>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ww</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>字段1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段2</t>
-  </si>
-  <si>
-    <t>字段3</t>
-  </si>
-  <si>
-    <t>字段4</t>
-  </si>
-  <si>
-    <t>字段描述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段描述2</t>
-  </si>
-  <si>
-    <t>字段描述3</t>
-  </si>
-  <si>
-    <t>字段描述4</t>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ww</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6F1EC-913E-4B3D-B77A-7DE02DCBAE91}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -459,104 +446,91 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
         <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4.3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
         <v>6</v>
       </c>
     </row>

--- a/DesignerConfigs/Datas/test/test_excel_bean.xlsx
+++ b/DesignerConfigs/Datas/test/test_excel_bean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A07B60-A7FE-4EF2-B62A-A9CEE96DB60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5401CF3C-C940-46D4-B36A-7000D1DCD2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31485" yWindow="2685" windowWidth="25335" windowHeight="12915" xr2:uid="{7AB0535F-222E-413C-B0CA-19C827C106C3}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25140" windowHeight="14325" xr2:uid="{7AB0535F-222E-413C-B0CA-19C827C106C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>x1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,14 +443,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
